--- a/08_Credit/final_tenzing_clean.xlsx
+++ b/08_Credit/final_tenzing_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/PSA_Projects/SPAML/SPAML-PSA/08_Credit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE3D632-4549-F245-84BA-739AD0DCE9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62FB057-8D9E-FE4C-9276-4CDA84D0E6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8743,7 +8743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8755,6 +8755,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9062,8 +9077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="H30" workbookViewId="0">
+      <selection activeCell="T51" sqref="T2:T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9073,6 +9088,7 @@
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="35.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="77.83203125" customWidth="1"/>
     <col min="22" max="22" width="50.1640625" customWidth="1"/>
     <col min="23" max="23" width="24.1640625" customWidth="1"/>
@@ -9137,7 +9153,7 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -9253,7 +9269,7 @@
       <c r="S2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -9353,7 +9369,7 @@
       <c r="S3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="10" t="s">
         <v>907</v>
       </c>
       <c r="U3" s="2"/>
@@ -9449,7 +9465,7 @@
       <c r="S4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="U4" s="3" t="s">
@@ -9547,7 +9563,7 @@
       <c r="S5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="U5" s="3" t="s">
@@ -9647,7 +9663,7 @@
       <c r="S6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U6" s="3" t="s">
@@ -9747,7 +9763,7 @@
       <c r="S7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="10" t="s">
         <v>917</v>
       </c>
       <c r="U7" s="3" t="s">
@@ -9847,7 +9863,7 @@
       <c r="S8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="10" t="s">
         <v>922</v>
       </c>
       <c r="U8" s="3" t="s">
@@ -9945,7 +9961,7 @@
       <c r="S9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" s="10" t="s">
         <v>49</v>
       </c>
       <c r="U9" s="3" t="s">
@@ -10043,7 +10059,7 @@
       <c r="S10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="10" t="s">
         <v>53</v>
       </c>
       <c r="U10" s="3" t="s">
@@ -10147,7 +10163,7 @@
       <c r="S11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="10" t="s">
         <v>933</v>
       </c>
       <c r="U11" s="3" t="s">
@@ -10247,7 +10263,7 @@
       <c r="S12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="10" t="s">
         <v>936</v>
       </c>
       <c r="U12" s="3" t="s">
@@ -10349,7 +10365,7 @@
       <c r="S13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="10" t="s">
         <v>60</v>
       </c>
       <c r="U13" s="3" t="s">
@@ -10453,7 +10469,7 @@
       <c r="S14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="10" t="s">
         <v>82</v>
       </c>
       <c r="U14" s="3" t="s">
@@ -10555,7 +10571,7 @@
       <c r="S15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" s="10" t="s">
         <v>89</v>
       </c>
       <c r="U15" s="3" t="s">
@@ -10657,7 +10673,7 @@
       <c r="S16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="10" t="s">
         <v>951</v>
       </c>
       <c r="U16" s="3" t="s">
@@ -10757,7 +10773,7 @@
       <c r="S17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" s="10" t="s">
         <v>955</v>
       </c>
       <c r="U17" s="3" t="s">
@@ -10859,7 +10875,7 @@
       <c r="S18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" s="10" t="s">
         <v>958</v>
       </c>
       <c r="U18" s="3" t="s">
@@ -10963,7 +10979,7 @@
       <c r="S19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="10" t="s">
         <v>70</v>
       </c>
       <c r="U19" s="3" t="s">
@@ -11063,7 +11079,7 @@
       <c r="S20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="10" t="s">
         <v>964</v>
       </c>
       <c r="U20" s="2"/>
@@ -11159,7 +11175,7 @@
       <c r="S21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="10" t="s">
         <v>78</v>
       </c>
       <c r="U21" s="3" t="s">
@@ -11257,7 +11273,7 @@
       <c r="S22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="10" t="s">
         <v>970</v>
       </c>
       <c r="U22" s="3" t="s">
@@ -11357,7 +11373,7 @@
       <c r="S23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T23" s="10" t="s">
         <v>96</v>
       </c>
       <c r="U23" s="3" t="s">
@@ -11465,7 +11481,7 @@
       <c r="S24" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="T24" s="10" t="s">
         <v>100</v>
       </c>
       <c r="U24" s="3" t="s">
@@ -11565,7 +11581,7 @@
       <c r="S25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="T25" s="11" t="s">
         <v>2166</v>
       </c>
       <c r="U25" s="3" t="s">
@@ -11665,7 +11681,7 @@
       <c r="S26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" s="10" t="s">
         <v>988</v>
       </c>
       <c r="U26" s="3" t="s">
@@ -11765,7 +11781,7 @@
       <c r="S27" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="T27" s="10" t="s">
         <v>102</v>
       </c>
       <c r="U27" s="3" t="s">
@@ -11867,7 +11883,7 @@
       <c r="S28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" s="10" t="s">
         <v>105</v>
       </c>
       <c r="U28" s="3" t="s">
@@ -11975,7 +11991,7 @@
       <c r="S29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="10" t="s">
         <v>107</v>
       </c>
       <c r="U29" s="3" t="s">
@@ -12077,7 +12093,7 @@
       <c r="S30" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="T30" s="10" t="s">
         <v>111</v>
       </c>
       <c r="U30" s="3" t="s">
@@ -12179,7 +12195,7 @@
       <c r="S31" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" s="10" t="s">
         <v>1011</v>
       </c>
       <c r="U31" s="3" t="s">
@@ -12281,7 +12297,7 @@
       <c r="S32" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="10" t="s">
         <v>1015</v>
       </c>
       <c r="U32" s="3" t="s">
@@ -12387,7 +12403,7 @@
       <c r="S33" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="T33" s="10" t="s">
         <v>272</v>
       </c>
       <c r="U33" s="2"/>
@@ -12487,7 +12503,7 @@
       <c r="S34" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="T34" s="10" t="s">
         <v>274</v>
       </c>
       <c r="U34" s="3" t="s">
@@ -12587,7 +12603,7 @@
       <c r="S35" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="T35" s="10" t="s">
         <v>1027</v>
       </c>
       <c r="U35" s="3" t="s">
@@ -12685,7 +12701,7 @@
       <c r="S36" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="T36" s="10" t="s">
         <v>1031</v>
       </c>
       <c r="U36" s="3" t="s">
@@ -12787,7 +12803,7 @@
       <c r="S37" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="T37" s="10" t="s">
         <v>115</v>
       </c>
       <c r="U37" s="3" t="s">
@@ -12887,7 +12903,7 @@
       <c r="S38" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="T38" s="10" t="s">
         <v>85</v>
       </c>
       <c r="U38" s="2"/>
@@ -12985,7 +13001,7 @@
       <c r="S39" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="T39" s="10" t="s">
         <v>1043</v>
       </c>
       <c r="U39" s="3" t="s">
@@ -13085,7 +13101,7 @@
       <c r="S40" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="T40" s="10" t="s">
         <v>2829</v>
       </c>
       <c r="U40" s="3" t="s">
@@ -13187,7 +13203,7 @@
       <c r="S41" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" s="10" t="s">
         <v>122</v>
       </c>
       <c r="U41" s="3" t="s">
@@ -13293,7 +13309,7 @@
       <c r="S42" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="T42" s="10" t="s">
         <v>1050</v>
       </c>
       <c r="U42" s="3" t="s">
@@ -13393,7 +13409,7 @@
       <c r="S43" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="T43" s="10" t="s">
         <v>1054</v>
       </c>
       <c r="U43" s="3" t="s">
@@ -13491,7 +13507,7 @@
       <c r="S44" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="T44" s="10" t="s">
         <v>1058</v>
       </c>
       <c r="U44" s="3" t="s">
@@ -13589,7 +13605,7 @@
       <c r="S45" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="T45" s="10" t="s">
         <v>124</v>
       </c>
       <c r="U45" s="3" t="s">
@@ -13689,7 +13705,7 @@
       <c r="S46" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="T46" s="10" t="s">
         <v>127</v>
       </c>
       <c r="U46" s="3" t="s">
@@ -13787,7 +13803,7 @@
       <c r="S47" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="T47" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="U47" s="3" t="s">
@@ -13885,7 +13901,7 @@
       <c r="S48" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="T48" s="10" t="s">
         <v>1074</v>
       </c>
       <c r="U48" s="3" t="s">
@@ -13985,7 +14001,7 @@
       <c r="S49" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T49" s="10" t="s">
         <v>1078</v>
       </c>
       <c r="U49" s="3" t="s">
@@ -14085,7 +14101,7 @@
       <c r="S50" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T50" s="10" t="s">
         <v>1082</v>
       </c>
       <c r="U50" s="3" t="s">
@@ -14187,7 +14203,7 @@
       <c r="S51" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="T51" s="10" t="s">
         <v>1085</v>
       </c>
       <c r="U51" s="3" t="s">
@@ -14285,7 +14301,7 @@
       <c r="S52" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="T52" s="10" t="s">
         <v>1091</v>
       </c>
       <c r="U52" s="3" t="s">
@@ -14383,7 +14399,7 @@
       <c r="S53" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="T53" s="10" t="s">
         <v>1096</v>
       </c>
       <c r="U53" s="3" t="s">
@@ -14481,7 +14497,7 @@
       <c r="S54" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="T54" s="10" t="s">
         <v>1099</v>
       </c>
       <c r="U54" s="3" t="s">
@@ -14581,7 +14597,7 @@
       <c r="S55" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="T55" s="10" t="s">
         <v>1103</v>
       </c>
       <c r="U55" s="3" t="s">
@@ -14683,7 +14699,7 @@
       <c r="S56" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="T56" s="10" t="s">
         <v>1110</v>
       </c>
       <c r="U56" s="3" t="s">
@@ -14781,7 +14797,7 @@
       <c r="S57" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="T57" s="10" t="s">
         <v>1114</v>
       </c>
       <c r="U57" s="3" t="s">
@@ -14877,7 +14893,7 @@
       <c r="S58" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="T58" s="10" t="s">
         <v>136</v>
       </c>
       <c r="U58" s="3" t="s">
@@ -14977,7 +14993,7 @@
       <c r="S59" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="T59" s="10" t="s">
         <v>1121</v>
       </c>
       <c r="U59" s="3" t="s">
@@ -15073,7 +15089,7 @@
       <c r="S60" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T60" s="2" t="s">
+      <c r="T60" s="10" t="s">
         <v>140</v>
       </c>
       <c r="U60" s="3" t="s">
@@ -15175,7 +15191,7 @@
       <c r="S61" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T61" s="2" t="s">
+      <c r="T61" s="10" t="s">
         <v>1129</v>
       </c>
       <c r="U61" s="3" t="s">
@@ -15271,7 +15287,7 @@
       <c r="S62" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="T62" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="U62" s="3" t="s">
@@ -15377,7 +15393,7 @@
       <c r="S63" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T63" s="2" t="s">
+      <c r="T63" s="10" t="s">
         <v>150</v>
       </c>
       <c r="U63" s="3" t="s">
@@ -15477,7 +15493,7 @@
       <c r="S64" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="T64" s="10" t="s">
         <v>155</v>
       </c>
       <c r="U64" s="3" t="s">
@@ -15577,7 +15593,7 @@
       <c r="S65" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T65" s="2" t="s">
+      <c r="T65" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="U65" s="3" t="s">
@@ -15675,7 +15691,7 @@
       <c r="S66" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T66" s="2" t="s">
+      <c r="T66" s="10" t="s">
         <v>1148</v>
       </c>
       <c r="U66" s="3" t="s">
@@ -15775,7 +15791,7 @@
       <c r="S67" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T67" s="2" t="s">
+      <c r="T67" s="10" t="s">
         <v>159</v>
       </c>
       <c r="U67" s="3" t="s">
@@ -15873,7 +15889,7 @@
       <c r="S68" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T68" s="2" t="s">
+      <c r="T68" s="10" t="s">
         <v>1155</v>
       </c>
       <c r="U68" s="3" t="s">
@@ -15971,7 +15987,7 @@
       <c r="S69" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T69" s="2" t="s">
+      <c r="T69" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="U69" s="3" t="s">
@@ -16073,7 +16089,7 @@
       <c r="S70" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T70" s="2" t="s">
+      <c r="T70" s="10" t="s">
         <v>1161</v>
       </c>
       <c r="U70" s="3" t="s">
@@ -16181,7 +16197,7 @@
       <c r="S71" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T71" s="2" t="s">
+      <c r="T71" s="10" t="s">
         <v>1166</v>
       </c>
       <c r="U71" s="3" t="s">
@@ -16285,7 +16301,7 @@
       <c r="S72" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T72" s="2" t="s">
+      <c r="T72" s="10" t="s">
         <v>1169</v>
       </c>
       <c r="U72" s="3" t="s">
@@ -16385,7 +16401,7 @@
       <c r="S73" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="T73" s="10" t="s">
         <v>166</v>
       </c>
       <c r="U73" s="3" t="s">
@@ -16485,7 +16501,7 @@
       <c r="S74" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T74" s="2" t="s">
+      <c r="T74" s="10" t="s">
         <v>1176</v>
       </c>
       <c r="U74" s="3" t="s">
@@ -16587,7 +16603,7 @@
       <c r="S75" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T75" s="2" t="s">
+      <c r="T75" s="10" t="s">
         <v>170</v>
       </c>
       <c r="U75" s="3" t="s">
@@ -16691,7 +16707,7 @@
       <c r="S76" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T76" s="2" t="s">
+      <c r="T76" s="10" t="s">
         <v>177</v>
       </c>
       <c r="U76" s="2"/>
@@ -16789,7 +16805,7 @@
       <c r="S77" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T77" s="2" t="s">
+      <c r="T77" s="10" t="s">
         <v>181</v>
       </c>
       <c r="U77" s="3" t="s">
@@ -16887,7 +16903,7 @@
       <c r="S78" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T78" s="2" t="s">
+      <c r="T78" s="10" t="s">
         <v>142</v>
       </c>
       <c r="U78" s="3" t="s">
@@ -16989,7 +17005,7 @@
       <c r="S79" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T79" s="2" t="s">
+      <c r="T79" s="10" t="s">
         <v>1192</v>
       </c>
       <c r="U79" s="3" t="s">
@@ -17089,7 +17105,7 @@
       <c r="S80" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="T80" s="10" t="s">
         <v>1196</v>
       </c>
       <c r="U80" s="3" t="s">
@@ -17185,7 +17201,7 @@
       <c r="S81" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T81" s="2" t="s">
+      <c r="T81" s="10" t="s">
         <v>1199</v>
       </c>
       <c r="U81" s="3" t="s">
@@ -17287,7 +17303,7 @@
       <c r="S82" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T82" s="2" t="s">
+      <c r="T82" s="10" t="s">
         <v>1205</v>
       </c>
       <c r="U82" s="3" t="s">
@@ -17385,7 +17401,7 @@
       <c r="S83" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T83" s="2" t="s">
+      <c r="T83" s="10" t="s">
         <v>1209</v>
       </c>
       <c r="U83" s="3" t="s">
@@ -17485,7 +17501,7 @@
       <c r="S84" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T84" s="2" t="s">
+      <c r="T84" s="10" t="s">
         <v>1213</v>
       </c>
       <c r="U84" s="3" t="s">
@@ -17585,7 +17601,7 @@
       <c r="S85" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="T85" s="10" t="s">
         <v>1217</v>
       </c>
       <c r="U85" s="3" t="s">
@@ -17699,7 +17715,7 @@
       <c r="S86" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T86" s="2" t="s">
+      <c r="T86" s="10" t="s">
         <v>1222</v>
       </c>
       <c r="U86" s="3" t="s">
@@ -17803,7 +17819,7 @@
       <c r="S87" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T87" s="2" t="s">
+      <c r="T87" s="10" t="s">
         <v>1226</v>
       </c>
       <c r="U87" s="3" t="s">
@@ -17911,7 +17927,7 @@
       <c r="S88" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T88" s="2" t="s">
+      <c r="T88" s="10" t="s">
         <v>1230</v>
       </c>
       <c r="U88" s="3" t="s">
@@ -18009,7 +18025,7 @@
       <c r="S89" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T89" s="2" t="s">
+      <c r="T89" s="10" t="s">
         <v>1233</v>
       </c>
       <c r="U89" s="3" t="s">
@@ -18109,7 +18125,7 @@
       <c r="S90" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T90" s="2" t="s">
+      <c r="T90" s="10" t="s">
         <v>1237</v>
       </c>
       <c r="U90" s="3" t="s">
@@ -18207,7 +18223,7 @@
       <c r="S91" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T91" s="2" t="s">
+      <c r="T91" s="10" t="s">
         <v>1241</v>
       </c>
       <c r="U91" s="3" t="s">
@@ -18305,7 +18321,7 @@
       <c r="S92" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T92" s="2" t="s">
+      <c r="T92" s="10" t="s">
         <v>1246</v>
       </c>
       <c r="U92" s="3" t="s">
@@ -18411,7 +18427,7 @@
       <c r="S93" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T93" s="2" t="s">
+      <c r="T93" s="10" t="s">
         <v>1252</v>
       </c>
       <c r="U93" s="3" t="s">
@@ -18509,7 +18525,7 @@
       <c r="S94" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T94" s="2" t="s">
+      <c r="T94" s="10" t="s">
         <v>501</v>
       </c>
       <c r="U94" s="3" t="s">
@@ -18611,7 +18627,7 @@
       <c r="S95" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T95" s="2" t="s">
+      <c r="T95" s="10" t="s">
         <v>1260</v>
       </c>
       <c r="U95" s="3" t="s">
@@ -18721,7 +18737,7 @@
       <c r="S96" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T96" s="2" t="s">
+      <c r="T96" s="10" t="s">
         <v>194</v>
       </c>
       <c r="U96" s="3" t="s">
@@ -18819,7 +18835,7 @@
       <c r="S97" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T97" s="2" t="s">
+      <c r="T97" s="10" t="s">
         <v>198</v>
       </c>
       <c r="U97" s="3" t="s">
@@ -18917,7 +18933,7 @@
       <c r="S98" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T98" s="2" t="s">
+      <c r="T98" s="10" t="s">
         <v>201</v>
       </c>
       <c r="U98" s="3" t="s">
@@ -19017,7 +19033,7 @@
       <c r="S99" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T99" s="2" t="s">
+      <c r="T99" s="10" t="s">
         <v>205</v>
       </c>
       <c r="U99" s="3" t="s">
@@ -19117,7 +19133,7 @@
       <c r="S100" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T100" s="2" t="s">
+      <c r="T100" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="U100" s="3" t="s">
@@ -19215,7 +19231,7 @@
       <c r="S101" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T101" s="2" t="s">
+      <c r="T101" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="U101" s="3" t="s">
@@ -19315,7 +19331,7 @@
       <c r="S102" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T102" s="2" t="s">
+      <c r="T102" s="10" t="s">
         <v>208</v>
       </c>
       <c r="U102" s="3" t="s">
@@ -19413,7 +19429,7 @@
       <c r="S103" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T103" s="2" t="s">
+      <c r="T103" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="U103" s="3" t="s">
@@ -19513,7 +19529,7 @@
       <c r="S104" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T104" s="2" t="s">
+      <c r="T104" s="10" t="s">
         <v>212</v>
       </c>
       <c r="U104" s="3" t="s">
@@ -19617,7 +19633,7 @@
       <c r="S105" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T105" s="2" t="s">
+      <c r="T105" s="10" t="s">
         <v>512</v>
       </c>
       <c r="U105" s="3" t="s">
@@ -19723,7 +19739,7 @@
       <c r="S106" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T106" s="2" t="s">
+      <c r="T106" s="10" t="s">
         <v>1294</v>
       </c>
       <c r="U106" s="3" t="s">
@@ -19821,7 +19837,7 @@
       <c r="S107" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T107" s="2" t="s">
+      <c r="T107" s="10" t="s">
         <v>217</v>
       </c>
       <c r="U107" s="3" t="s">
@@ -19919,7 +19935,7 @@
       <c r="S108" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T108" s="2" t="s">
+      <c r="T108" s="10" t="s">
         <v>1300</v>
       </c>
       <c r="U108" s="3" t="s">
@@ -20017,7 +20033,7 @@
       <c r="S109" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T109" s="2" t="s">
+      <c r="T109" s="10" t="s">
         <v>1305</v>
       </c>
       <c r="U109" s="3" t="s">
@@ -20117,7 +20133,7 @@
       <c r="S110" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T110" s="2" t="s">
+      <c r="T110" s="10" t="s">
         <v>1310</v>
       </c>
       <c r="U110" s="3" t="s">
@@ -20217,7 +20233,7 @@
       <c r="S111" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T111" s="2" t="s">
+      <c r="T111" s="10" t="s">
         <v>1313</v>
       </c>
       <c r="U111" s="6" t="s">
@@ -20323,7 +20339,7 @@
       <c r="S112" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T112" s="2" t="s">
+      <c r="T112" s="10" t="s">
         <v>1317</v>
       </c>
       <c r="U112" s="3" t="s">
@@ -20423,7 +20439,7 @@
       <c r="S113" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T113" s="2" t="s">
+      <c r="T113" s="10" t="s">
         <v>1321</v>
       </c>
       <c r="U113" s="3" t="s">
@@ -20525,7 +20541,7 @@
       <c r="S114" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T114" s="2" t="s">
+      <c r="T114" s="10" t="s">
         <v>1325</v>
       </c>
       <c r="U114" s="3" t="s">
@@ -20625,7 +20641,7 @@
       <c r="S115" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T115" s="2" t="s">
+      <c r="T115" s="10" t="s">
         <v>1329</v>
       </c>
       <c r="U115" s="3" t="s">
@@ -20727,7 +20743,7 @@
       <c r="S116" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T116" s="7" t="s">
+      <c r="T116" s="12" t="s">
         <v>2833</v>
       </c>
       <c r="U116" s="3" t="s">
@@ -20825,7 +20841,7 @@
       <c r="S117" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T117" s="2" t="s">
+      <c r="T117" s="10" t="s">
         <v>223</v>
       </c>
       <c r="U117" s="3" t="s">
@@ -20923,7 +20939,7 @@
       <c r="S118" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T118" s="2" t="s">
+      <c r="T118" s="10" t="s">
         <v>228</v>
       </c>
       <c r="U118" s="3" t="s">
@@ -21023,7 +21039,7 @@
       <c r="S119" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T119" s="2" t="s">
+      <c r="T119" s="10" t="s">
         <v>1342</v>
       </c>
       <c r="U119" s="3" t="s">
@@ -21121,7 +21137,7 @@
       <c r="S120" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T120" s="2" t="s">
+      <c r="T120" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="U120" s="3" t="s">
@@ -21229,7 +21245,7 @@
       <c r="S121" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T121" s="2" t="s">
+      <c r="T121" s="10" t="s">
         <v>1350</v>
       </c>
       <c r="U121" s="3" t="s">
@@ -21329,7 +21345,7 @@
       <c r="S122" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T122" s="2" t="s">
+      <c r="T122" s="10" t="s">
         <v>1354</v>
       </c>
       <c r="U122" s="3" t="s">
@@ -21427,7 +21443,7 @@
       <c r="S123" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T123" s="2" t="s">
+      <c r="T123" s="10" t="s">
         <v>1361</v>
       </c>
       <c r="U123" s="3" t="s">
@@ -21529,7 +21545,7 @@
       <c r="S124" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T124" s="2" t="s">
+      <c r="T124" s="10" t="s">
         <v>238</v>
       </c>
       <c r="U124" s="3" t="s">
@@ -21627,7 +21643,7 @@
       <c r="S125" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T125" s="2" t="s">
+      <c r="T125" s="10" t="s">
         <v>1369</v>
       </c>
       <c r="U125" s="3" t="s">
@@ -21727,7 +21743,7 @@
       <c r="S126" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T126" s="2" t="s">
+      <c r="T126" s="10" t="s">
         <v>1372</v>
       </c>
       <c r="U126" s="3" t="s">
@@ -21831,7 +21847,7 @@
       <c r="S127" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T127" s="2" t="s">
+      <c r="T127" s="10" t="s">
         <v>1377</v>
       </c>
       <c r="U127" s="3" t="s">
@@ -21931,7 +21947,7 @@
       <c r="S128" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T128" s="2" t="s">
+      <c r="T128" s="10" t="s">
         <v>241</v>
       </c>
       <c r="U128" s="3" t="s">
@@ -22031,7 +22047,7 @@
       <c r="S129" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T129" s="2" t="s">
+      <c r="T129" s="10" t="s">
         <v>1385</v>
       </c>
       <c r="U129" s="3" t="s">
@@ -22131,7 +22147,7 @@
       <c r="S130" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T130" s="2" t="s">
+      <c r="T130" s="10" t="s">
         <v>245</v>
       </c>
       <c r="U130" s="3" t="s">
@@ -22237,7 +22253,7 @@
       <c r="S131" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T131" s="2" t="s">
+      <c r="T131" s="10" t="s">
         <v>1391</v>
       </c>
       <c r="U131" s="3" t="s">
@@ -22341,7 +22357,7 @@
       <c r="S132" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T132" s="2" t="s">
+      <c r="T132" s="10" t="s">
         <v>1394</v>
       </c>
       <c r="U132" s="3" t="s">
@@ -22439,7 +22455,7 @@
       <c r="S133" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T133" s="2" t="s">
+      <c r="T133" s="10" t="s">
         <v>1397</v>
       </c>
       <c r="U133" s="3" t="s">
@@ -22541,7 +22557,7 @@
       <c r="S134" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T134" s="2" t="s">
+      <c r="T134" s="10" t="s">
         <v>1404</v>
       </c>
       <c r="U134" s="3" t="s">
@@ -22639,7 +22655,7 @@
       <c r="S135" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T135" s="2" t="s">
+      <c r="T135" s="10" t="s">
         <v>1405</v>
       </c>
       <c r="U135" s="3" t="s">
@@ -22737,7 +22753,7 @@
       <c r="S136" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T136" s="2" t="s">
+      <c r="T136" s="10" t="s">
         <v>1409</v>
       </c>
       <c r="U136" s="3" t="s">
@@ -22845,7 +22861,7 @@
       <c r="S137" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T137" s="2" t="s">
+      <c r="T137" s="10" t="s">
         <v>256</v>
       </c>
       <c r="U137" s="3" t="s">
@@ -22951,7 +22967,7 @@
       <c r="S138" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T138" s="2" t="s">
+      <c r="T138" s="10" t="s">
         <v>1417</v>
       </c>
       <c r="U138" s="3" t="s">
@@ -23049,7 +23065,7 @@
       <c r="S139" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T139" s="2" t="s">
+      <c r="T139" s="10" t="s">
         <v>1420</v>
       </c>
       <c r="U139" s="3" t="s">
@@ -23149,7 +23165,7 @@
       <c r="S140" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T140" s="2" t="s">
+      <c r="T140" s="10" t="s">
         <v>1423</v>
       </c>
       <c r="U140" s="3" t="s">
@@ -23253,7 +23269,7 @@
       <c r="S141" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T141" s="2" t="s">
+      <c r="T141" s="10" t="s">
         <v>259</v>
       </c>
       <c r="U141" s="3" t="s">
@@ -23355,7 +23371,7 @@
       <c r="S142" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T142" s="2" t="s">
+      <c r="T142" s="10" t="s">
         <v>263</v>
       </c>
       <c r="U142" s="3" t="s">
@@ -23455,7 +23471,7 @@
       <c r="S143" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T143" s="2" t="s">
+      <c r="T143" s="10" t="s">
         <v>1435</v>
       </c>
       <c r="U143" s="3" t="s">
@@ -23555,7 +23571,7 @@
       <c r="S144" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T144" s="2" t="s">
+      <c r="T144" s="10" t="s">
         <v>416</v>
       </c>
       <c r="U144" s="3" t="s">
@@ -23653,7 +23669,7 @@
       <c r="S145" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T145" s="2" t="s">
+      <c r="T145" s="10" t="s">
         <v>1443</v>
       </c>
       <c r="U145" s="3" t="s">
@@ -23751,7 +23767,7 @@
       <c r="S146" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T146" s="2" t="s">
+      <c r="T146" s="10" t="s">
         <v>1447</v>
       </c>
       <c r="U146" s="3" t="s">
@@ -23849,7 +23865,7 @@
       <c r="S147" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T147" s="2" t="s">
+      <c r="T147" s="10" t="s">
         <v>1450</v>
       </c>
       <c r="U147" s="3" t="s">
@@ -23951,7 +23967,7 @@
       <c r="S148" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T148" s="2" t="s">
+      <c r="T148" s="10" t="s">
         <v>1454</v>
       </c>
       <c r="U148" s="3" t="s">
@@ -24051,7 +24067,7 @@
       <c r="S149" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T149" s="2" t="s">
+      <c r="T149" s="10" t="s">
         <v>1457</v>
       </c>
       <c r="U149" s="3" t="s">
@@ -24151,7 +24167,7 @@
       <c r="S150" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T150" s="2" t="s">
+      <c r="T150" s="10" t="s">
         <v>1460</v>
       </c>
       <c r="U150" s="3" t="s">
@@ -24253,7 +24269,7 @@
       <c r="S151" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T151" s="2" t="s">
+      <c r="T151" s="10" t="s">
         <v>1465</v>
       </c>
       <c r="U151" s="3" t="s">
@@ -24353,7 +24369,7 @@
       <c r="S152" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T152" s="2" t="s">
+      <c r="T152" s="10" t="s">
         <v>1468</v>
       </c>
       <c r="U152" s="3" t="s">
@@ -24451,7 +24467,7 @@
       <c r="S153" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T153" s="2" t="s">
+      <c r="T153" s="10" t="s">
         <v>1472</v>
       </c>
       <c r="U153" s="2"/>
@@ -24547,7 +24563,7 @@
       <c r="S154" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T154" s="2" t="s">
+      <c r="T154" s="10" t="s">
         <v>1475</v>
       </c>
       <c r="U154" s="3" t="s">
@@ -24647,7 +24663,7 @@
       <c r="S155" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T155" s="2" t="s">
+      <c r="T155" s="10" t="s">
         <v>1480</v>
       </c>
       <c r="U155" s="3" t="s">
@@ -24749,7 +24765,7 @@
       <c r="S156" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T156" s="2" t="s">
+      <c r="T156" s="10" t="s">
         <v>1483</v>
       </c>
       <c r="U156" s="3" t="s">
@@ -24849,7 +24865,7 @@
       <c r="S157" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T157" s="2" t="s">
+      <c r="T157" s="10" t="s">
         <v>1487</v>
       </c>
       <c r="U157" s="3" t="s">
@@ -24947,7 +24963,7 @@
       <c r="S158" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T158" s="2" t="s">
+      <c r="T158" s="10" t="s">
         <v>1489</v>
       </c>
       <c r="U158" s="3" t="s">
@@ -25047,7 +25063,7 @@
       <c r="S159" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T159" s="2" t="s">
+      <c r="T159" s="10" t="s">
         <v>1493</v>
       </c>
       <c r="U159" s="3" t="s">
@@ -25145,7 +25161,7 @@
       <c r="S160" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T160" s="2" t="s">
+      <c r="T160" s="10" t="s">
         <v>1497</v>
       </c>
       <c r="U160" s="3" t="s">
@@ -25247,7 +25263,7 @@
       <c r="S161" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T161" s="2" t="s">
+      <c r="T161" s="10" t="s">
         <v>1502</v>
       </c>
       <c r="U161" s="3" t="s">
@@ -25349,7 +25365,7 @@
       <c r="S162" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T162" s="2" t="s">
+      <c r="T162" s="10" t="s">
         <v>284</v>
       </c>
       <c r="U162" s="3" t="s">
@@ -25449,7 +25465,7 @@
       <c r="S163" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T163" s="2" t="s">
+      <c r="T163" s="10" t="s">
         <v>1510</v>
       </c>
       <c r="U163" s="3" t="s">
@@ -25547,7 +25563,7 @@
       <c r="S164" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T164" s="2" t="s">
+      <c r="T164" s="10" t="s">
         <v>1514</v>
       </c>
       <c r="U164" s="3" t="s">
@@ -25645,7 +25661,7 @@
       <c r="S165" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T165" s="2" t="s">
+      <c r="T165" s="10" t="s">
         <v>1517</v>
       </c>
       <c r="U165" s="3" t="s">
@@ -25743,7 +25759,7 @@
       <c r="S166" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T166" s="2" t="s">
+      <c r="T166" s="10" t="s">
         <v>249</v>
       </c>
       <c r="U166" s="2"/>
@@ -25843,7 +25859,7 @@
       <c r="S167" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T167" s="2" t="s">
+      <c r="T167" s="10" t="s">
         <v>1522</v>
       </c>
       <c r="U167" s="3" t="s">
@@ -25941,7 +25957,7 @@
       <c r="S168" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T168" s="2" t="s">
+      <c r="T168" s="10" t="s">
         <v>1527</v>
       </c>
       <c r="U168" s="3" t="s">
@@ -26049,7 +26065,7 @@
       <c r="S169" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T169" s="2" t="s">
+      <c r="T169" s="10" t="s">
         <v>1532</v>
       </c>
       <c r="U169" s="3" t="s">
@@ -26155,7 +26171,7 @@
       <c r="S170" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T170" s="2" t="s">
+      <c r="T170" s="10" t="s">
         <v>1535</v>
       </c>
       <c r="U170" s="3" t="s">
@@ -26263,7 +26279,7 @@
       <c r="S171" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T171" s="2" t="s">
+      <c r="T171" s="10" t="s">
         <v>1541</v>
       </c>
       <c r="U171" s="3" t="s">
@@ -26361,7 +26377,7 @@
       <c r="S172" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T172" s="2" t="s">
+      <c r="T172" s="10" t="s">
         <v>1545</v>
       </c>
       <c r="U172" s="3" t="s">
@@ -26459,7 +26475,7 @@
       <c r="S173" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T173" s="2" t="s">
+      <c r="T173" s="10" t="s">
         <v>1549</v>
       </c>
       <c r="U173" s="2"/>
@@ -26557,7 +26573,7 @@
       <c r="S174" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T174" s="2" t="s">
+      <c r="T174" s="10" t="s">
         <v>2839</v>
       </c>
       <c r="U174" s="3" t="s">
@@ -26655,7 +26671,7 @@
       <c r="S175" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T175" s="2" t="s">
+      <c r="T175" s="10" t="s">
         <v>1556</v>
       </c>
       <c r="U175" s="3" t="s">
@@ -26753,7 +26769,7 @@
       <c r="S176" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T176" s="2" t="s">
+      <c r="T176" s="10" t="s">
         <v>1559</v>
       </c>
       <c r="U176" s="3" t="s">
@@ -26855,7 +26871,7 @@
       <c r="S177" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T177" s="2" t="s">
+      <c r="T177" s="10" t="s">
         <v>1564</v>
       </c>
       <c r="U177" s="3" t="s">
@@ -26955,7 +26971,7 @@
       <c r="S178" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T178" s="2" t="s">
+      <c r="T178" s="10" t="s">
         <v>1568</v>
       </c>
       <c r="U178" s="3" t="s">
@@ -27059,7 +27075,7 @@
       <c r="S179" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T179" s="2" t="s">
+      <c r="T179" s="10" t="s">
         <v>1573</v>
       </c>
       <c r="U179" s="3" t="s">
@@ -27161,7 +27177,7 @@
       <c r="S180" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T180" s="2" t="s">
+      <c r="T180" s="10" t="s">
         <v>1578</v>
       </c>
       <c r="U180" s="3" t="s">
@@ -27263,7 +27279,7 @@
       <c r="S181" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T181" s="2" t="s">
+      <c r="T181" s="10" t="s">
         <v>1583</v>
       </c>
       <c r="U181" s="3" t="s">
@@ -27365,7 +27381,7 @@
       <c r="S182" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T182" s="2" t="s">
+      <c r="T182" s="10" t="s">
         <v>1590</v>
       </c>
       <c r="U182" s="3" t="s">
@@ -27463,7 +27479,7 @@
       <c r="S183" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T183" s="2" t="s">
+      <c r="T183" s="10" t="s">
         <v>1593</v>
       </c>
       <c r="U183" s="3" t="s">
@@ -27569,7 +27585,7 @@
       <c r="S184" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T184" s="2" t="s">
+      <c r="T184" s="10" t="s">
         <v>312</v>
       </c>
       <c r="U184" s="3" t="s">
@@ -27667,7 +27683,7 @@
       <c r="S185" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T185" s="2" t="s">
+      <c r="T185" s="10" t="s">
         <v>1600</v>
       </c>
       <c r="U185" s="3" t="s">
@@ -27767,7 +27783,7 @@
       <c r="S186" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T186" s="2" t="s">
+      <c r="T186" s="10" t="s">
         <v>1606</v>
       </c>
       <c r="U186" s="3" t="s">
@@ -27871,7 +27887,7 @@
       <c r="S187" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T187" s="2" t="s">
+      <c r="T187" s="10" t="s">
         <v>1609</v>
       </c>
       <c r="U187" s="3" t="s">
@@ -27971,7 +27987,7 @@
       <c r="S188" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T188" s="2" t="s">
+      <c r="T188" s="10" t="s">
         <v>1614</v>
       </c>
       <c r="U188" s="3" t="s">
@@ -28071,7 +28087,7 @@
       <c r="S189" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T189" s="2" t="s">
+      <c r="T189" s="10" t="s">
         <v>1618</v>
       </c>
       <c r="U189" s="3" t="s">
@@ -28177,7 +28193,7 @@
       <c r="S190" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T190" s="2" t="s">
+      <c r="T190" s="10" t="s">
         <v>315</v>
       </c>
       <c r="U190" s="3" t="s">
@@ -28275,7 +28291,7 @@
       <c r="S191" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T191" s="2" t="s">
+      <c r="T191" s="10" t="s">
         <v>1624</v>
       </c>
       <c r="U191" s="3" t="s">
@@ -28375,7 +28391,7 @@
       <c r="S192" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T192" s="2" t="s">
+      <c r="T192" s="10" t="s">
         <v>1627</v>
       </c>
       <c r="U192" s="3" t="s">
@@ -28473,7 +28489,7 @@
       <c r="S193" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T193" s="2" t="s">
+      <c r="T193" s="10" t="s">
         <v>1630</v>
       </c>
       <c r="U193" s="3" t="s">
@@ -28579,7 +28595,7 @@
       <c r="S194" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T194" s="2" t="s">
+      <c r="T194" s="10" t="s">
         <v>1635</v>
       </c>
       <c r="U194" s="3" t="s">
@@ -28681,7 +28697,7 @@
       <c r="S195" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T195" s="2" t="s">
+      <c r="T195" s="10" t="s">
         <v>320</v>
       </c>
       <c r="U195" s="3" t="s">
@@ -28783,7 +28799,7 @@
       <c r="S196" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T196" s="2" t="s">
+      <c r="T196" s="10" t="s">
         <v>325</v>
       </c>
       <c r="U196" s="3" t="s">
@@ -28883,7 +28899,7 @@
       <c r="S197" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T197" s="2" t="s">
+      <c r="T197" s="10" t="s">
         <v>329</v>
       </c>
       <c r="U197" s="3" t="s">
@@ -28981,7 +28997,7 @@
       <c r="S198" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T198" s="2" t="s">
+      <c r="T198" s="10" t="s">
         <v>332</v>
       </c>
       <c r="U198" s="3" t="s">
@@ -29081,7 +29097,7 @@
       <c r="S199" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T199" s="2" t="s">
+      <c r="T199" s="10" t="s">
         <v>1647</v>
       </c>
       <c r="U199" s="3" t="s">
@@ -29183,7 +29199,7 @@
       <c r="S200" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T200" s="2" t="s">
+      <c r="T200" s="10" t="s">
         <v>1654</v>
       </c>
       <c r="U200" s="3" t="s">
@@ -29283,7 +29299,7 @@
       <c r="S201" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T201" s="2" t="s">
+      <c r="T201" s="10" t="s">
         <v>1658</v>
       </c>
       <c r="U201" s="3" t="s">
@@ -29383,7 +29399,7 @@
       <c r="S202" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T202" s="2" t="s">
+      <c r="T202" s="10" t="s">
         <v>337</v>
       </c>
       <c r="U202" s="3" t="s">
@@ -29485,7 +29501,7 @@
       <c r="S203" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T203" s="2" t="s">
+      <c r="T203" s="10" t="s">
         <v>1665</v>
       </c>
       <c r="U203" s="3" t="s">
@@ -29585,7 +29601,7 @@
       <c r="S204" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T204" s="2" t="s">
+      <c r="T204" s="10" t="s">
         <v>1669</v>
       </c>
       <c r="U204" s="3" t="s">
@@ -29683,7 +29699,7 @@
       <c r="S205" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T205" s="2" t="s">
+      <c r="T205" s="10" t="s">
         <v>1673</v>
       </c>
       <c r="U205" s="3" t="s">
@@ -29781,7 +29797,7 @@
       <c r="S206" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T206" s="2" t="s">
+      <c r="T206" s="10" t="s">
         <v>339</v>
       </c>
       <c r="U206" s="3" t="s">
@@ -29881,7 +29897,7 @@
       <c r="S207" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T207" s="2" t="s">
+      <c r="T207" s="10" t="s">
         <v>1680</v>
       </c>
       <c r="U207" s="3" t="s">
@@ -29981,7 +29997,7 @@
       <c r="S208" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T208" s="2" t="s">
+      <c r="T208" s="10" t="s">
         <v>343</v>
       </c>
       <c r="U208" s="3" t="s">
@@ -30083,7 +30099,7 @@
       <c r="S209" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T209" s="2" t="s">
+      <c r="T209" s="10" t="s">
         <v>1686</v>
       </c>
       <c r="U209" s="3" t="s">
@@ -30181,7 +30197,7 @@
       <c r="S210" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T210" s="2" t="s">
+      <c r="T210" s="10" t="s">
         <v>1689</v>
       </c>
       <c r="U210" s="3" t="s">
@@ -30289,7 +30305,7 @@
       <c r="S211" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T211" s="2" t="s">
+      <c r="T211" s="10" t="s">
         <v>346</v>
       </c>
       <c r="U211" s="3" t="s">
@@ -30387,7 +30403,7 @@
       <c r="S212" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T212" s="2" t="s">
+      <c r="T212" s="10" t="s">
         <v>349</v>
       </c>
       <c r="U212" s="3" t="s">
@@ -30493,7 +30509,7 @@
       <c r="S213" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T213" s="2" t="s">
+      <c r="T213" s="10" t="s">
         <v>1700</v>
       </c>
       <c r="U213" s="6" t="s">
@@ -30593,7 +30609,7 @@
       <c r="S214" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T214" s="2" t="s">
+      <c r="T214" s="10" t="s">
         <v>354</v>
       </c>
       <c r="U214" s="3" t="s">
@@ -30693,7 +30709,7 @@
       <c r="S215" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T215" s="2" t="s">
+      <c r="T215" s="10" t="s">
         <v>358</v>
       </c>
       <c r="U215" s="3" t="s">
@@ -30803,7 +30819,7 @@
       <c r="S216" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T216" s="2" t="s">
+      <c r="T216" s="10" t="s">
         <v>1710</v>
       </c>
       <c r="U216" s="3" t="s">
@@ -30903,7 +30919,7 @@
       <c r="S217" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T217" s="2" t="s">
+      <c r="T217" s="10" t="s">
         <v>1715</v>
       </c>
       <c r="U217" s="3" t="s">
@@ -31003,7 +31019,7 @@
       <c r="S218" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T218" s="2" t="s">
+      <c r="T218" s="10" t="s">
         <v>1720</v>
       </c>
       <c r="U218" s="3" t="s">
@@ -31103,7 +31119,7 @@
       <c r="S219" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T219" s="2" t="s">
+      <c r="T219" s="10" t="s">
         <v>367</v>
       </c>
       <c r="U219" s="3" t="s">
@@ -31203,7 +31219,7 @@
       <c r="S220" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T220" s="2" t="s">
+      <c r="T220" s="10" t="s">
         <v>373</v>
       </c>
       <c r="U220" s="3" t="s">
@@ -31303,7 +31319,7 @@
       <c r="S221" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T221" s="2" t="s">
+      <c r="T221" s="10" t="s">
         <v>1730</v>
       </c>
       <c r="U221" s="3" t="s">
@@ -31403,7 +31419,7 @@
       <c r="S222" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T222" s="7" t="s">
+      <c r="T222" s="12" t="s">
         <v>1734</v>
       </c>
       <c r="U222" s="3" t="s">
@@ -31503,7 +31519,7 @@
       <c r="S223" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T223" s="2" t="s">
+      <c r="T223" s="10" t="s">
         <v>380</v>
       </c>
       <c r="U223" s="3" t="s">
@@ -31611,7 +31627,7 @@
       <c r="S224" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T224" s="2" t="s">
+      <c r="T224" s="10" t="s">
         <v>1741</v>
       </c>
       <c r="U224" s="3" t="s">
@@ -31715,7 +31731,7 @@
       <c r="S225" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T225" s="2" t="s">
+      <c r="T225" s="10" t="s">
         <v>1746</v>
       </c>
       <c r="U225" s="3" t="s">
@@ -31813,7 +31829,7 @@
       <c r="S226" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T226" s="2" t="s">
+      <c r="T226" s="10" t="s">
         <v>1749</v>
       </c>
       <c r="U226" s="3" t="s">
@@ -31921,7 +31937,7 @@
       <c r="S227" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T227" s="2" t="s">
+      <c r="T227" s="10" t="s">
         <v>386</v>
       </c>
       <c r="U227" s="3" t="s">
@@ -32019,7 +32035,7 @@
       <c r="S228" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T228" s="2" t="s">
+      <c r="T228" s="10" t="s">
         <v>1758</v>
       </c>
       <c r="U228" s="3" t="s">
@@ -32115,7 +32131,7 @@
       <c r="S229" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T229" s="2" t="s">
+      <c r="T229" s="10" t="s">
         <v>1761</v>
       </c>
       <c r="U229" s="3" t="s">
@@ -32213,7 +32229,7 @@
       <c r="S230" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T230" s="2" t="s">
+      <c r="T230" s="10" t="s">
         <v>391</v>
       </c>
       <c r="U230" s="3" t="s">
@@ -32311,7 +32327,7 @@
       <c r="S231" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T231" s="2" t="s">
+      <c r="T231" s="10" t="s">
         <v>395</v>
       </c>
       <c r="U231" s="3" t="s">
@@ -32419,7 +32435,7 @@
       <c r="S232" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T232" s="2" t="s">
+      <c r="T232" s="10" t="s">
         <v>1770</v>
       </c>
       <c r="U232" s="3" t="s">
@@ -32519,7 +32535,7 @@
       <c r="S233" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T233" s="2" t="s">
+      <c r="T233" s="10" t="s">
         <v>399</v>
       </c>
       <c r="U233" s="3" t="s">
@@ -32621,7 +32637,7 @@
       <c r="S234" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T234" s="2" t="s">
+      <c r="T234" s="10" t="s">
         <v>1775</v>
       </c>
       <c r="U234" s="3" t="s">
@@ -32723,7 +32739,7 @@
       <c r="S235" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T235" s="2" t="s">
+      <c r="T235" s="10" t="s">
         <v>1782</v>
       </c>
       <c r="U235" s="3" t="s">
@@ -32823,7 +32839,7 @@
       <c r="S236" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T236" s="2" t="s">
+      <c r="T236" s="10" t="s">
         <v>1786</v>
       </c>
       <c r="U236" s="3" t="s">
@@ -32927,7 +32943,7 @@
       <c r="S237" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T237" s="2" t="s">
+      <c r="T237" s="10" t="s">
         <v>1790</v>
       </c>
       <c r="U237" s="3" t="s">
@@ -33025,7 +33041,7 @@
       <c r="S238" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T238" s="2" t="s">
+      <c r="T238" s="10" t="s">
         <v>1793</v>
       </c>
       <c r="U238" s="3" t="s">
@@ -33131,7 +33147,7 @@
       <c r="S239" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T239" s="2" t="s">
+      <c r="T239" s="10" t="s">
         <v>1796</v>
       </c>
       <c r="U239" s="3" t="s">
@@ -33237,7 +33253,7 @@
       <c r="S240" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T240" s="2" t="s">
+      <c r="T240" s="10" t="s">
         <v>1800</v>
       </c>
       <c r="U240" s="3" t="s">
@@ -33345,7 +33361,7 @@
       <c r="S241" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T241" s="2" t="s">
+      <c r="T241" s="10" t="s">
         <v>1804</v>
       </c>
       <c r="U241" s="3" t="s">
@@ -33447,7 +33463,7 @@
       <c r="S242" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T242" s="2" t="s">
+      <c r="T242" s="10" t="s">
         <v>1809</v>
       </c>
       <c r="U242" s="3" t="s">
@@ -33547,7 +33563,7 @@
       <c r="S243" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T243" s="2" t="s">
+      <c r="T243" s="10" t="s">
         <v>407</v>
       </c>
       <c r="U243" s="3" t="s">
@@ -33649,7 +33665,7 @@
       <c r="S244" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T244" s="2" t="s">
+      <c r="T244" s="10" t="s">
         <v>412</v>
       </c>
       <c r="U244" s="3" t="s">
@@ -33749,7 +33765,7 @@
       <c r="S245" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T245" s="2" t="s">
+      <c r="T245" s="10" t="s">
         <v>1818</v>
       </c>
       <c r="U245" s="3" t="s">
@@ -33851,7 +33867,7 @@
       <c r="S246" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T246" s="2" t="s">
+      <c r="T246" s="10" t="s">
         <v>1822</v>
       </c>
       <c r="U246" s="3" t="s">
@@ -33949,7 +33965,7 @@
       <c r="S247" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T247" s="2" t="s">
+      <c r="T247" s="10" t="s">
         <v>1825</v>
       </c>
       <c r="U247" s="3" t="s">
@@ -34047,7 +34063,7 @@
       <c r="S248" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T248" s="2" t="s">
+      <c r="T248" s="10" t="s">
         <v>2655</v>
       </c>
       <c r="U248" s="3" t="s">
@@ -34145,7 +34161,7 @@
       <c r="S249" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T249" s="2" t="s">
+      <c r="T249" s="10" t="s">
         <v>1833</v>
       </c>
       <c r="U249" s="3" t="s">
@@ -34243,7 +34259,7 @@
       <c r="S250" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T250" s="2" t="s">
+      <c r="T250" s="10" t="s">
         <v>1837</v>
       </c>
       <c r="U250" s="3" t="s">
@@ -34343,7 +34359,7 @@
       <c r="S251" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T251" s="2" t="s">
+      <c r="T251" s="10" t="s">
         <v>1840</v>
       </c>
       <c r="U251" s="3" t="s">
@@ -34443,7 +34459,7 @@
       <c r="S252" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T252" s="2" t="s">
+      <c r="T252" s="10" t="s">
         <v>1844</v>
       </c>
       <c r="U252" s="3" t="s">
@@ -34543,7 +34559,7 @@
       <c r="S253" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T253" s="2" t="s">
+      <c r="T253" s="10" t="s">
         <v>1849</v>
       </c>
       <c r="U253" s="3" t="s">
@@ -34645,7 +34661,7 @@
       <c r="S254" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T254" s="2" t="s">
+      <c r="T254" s="10" t="s">
         <v>1855</v>
       </c>
       <c r="U254" s="3" t="s">
@@ -34745,7 +34761,7 @@
       <c r="S255" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T255" s="2" t="s">
+      <c r="T255" s="10" t="s">
         <v>1859</v>
       </c>
       <c r="U255" s="3" t="s">
@@ -34847,7 +34863,7 @@
       <c r="S256" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T256" s="2" t="s">
+      <c r="T256" s="10" t="s">
         <v>1863</v>
       </c>
       <c r="U256" s="3" t="s">
@@ -34949,7 +34965,7 @@
       <c r="S257" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T257" s="2" t="s">
+      <c r="T257" s="10" t="s">
         <v>1869</v>
       </c>
       <c r="U257" s="3" t="s">
@@ -35047,7 +35063,7 @@
       <c r="S258" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T258" s="2" t="s">
+      <c r="T258" s="10" t="s">
         <v>419</v>
       </c>
       <c r="U258" s="3" t="s">
@@ -35147,7 +35163,7 @@
       <c r="S259" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T259" s="2" t="s">
+      <c r="T259" s="10" t="s">
         <v>1874</v>
       </c>
       <c r="U259" s="3" t="s">
@@ -35249,7 +35265,7 @@
       <c r="S260" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T260" s="2" t="s">
+      <c r="T260" s="10" t="s">
         <v>1878</v>
       </c>
       <c r="U260" s="3" t="s">
@@ -35353,7 +35369,7 @@
       <c r="S261" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T261" s="2" t="s">
+      <c r="T261" s="10" t="s">
         <v>1883</v>
       </c>
       <c r="U261" s="3" t="s">
@@ -35453,7 +35469,7 @@
       <c r="S262" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T262" s="2" t="s">
+      <c r="T262" s="10" t="s">
         <v>426</v>
       </c>
       <c r="U262" s="3" t="s">
@@ -35555,7 +35571,7 @@
       <c r="S263" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T263" s="2" t="s">
+      <c r="T263" s="10" t="s">
         <v>431</v>
       </c>
       <c r="U263" s="3" t="s">
@@ -35653,7 +35669,7 @@
       <c r="S264" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T264" s="2" t="s">
+      <c r="T264" s="10" t="s">
         <v>1893</v>
       </c>
       <c r="U264" s="3" t="s">
@@ -35751,7 +35767,7 @@
       <c r="S265" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T265" s="2" t="s">
+      <c r="T265" s="10" t="s">
         <v>435</v>
       </c>
       <c r="U265" s="3" t="s">
@@ -35851,7 +35867,7 @@
       <c r="S266" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T266" s="2" t="s">
+      <c r="T266" s="10" t="s">
         <v>1898</v>
       </c>
       <c r="U266" s="3" t="s">
@@ -35949,7 +35965,7 @@
       <c r="S267" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T267" s="2" t="s">
+      <c r="T267" s="10" t="s">
         <v>1901</v>
       </c>
       <c r="U267" s="3" t="s">
@@ -36047,7 +36063,7 @@
       <c r="S268" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T268" s="2" t="s">
+      <c r="T268" s="10" t="s">
         <v>1904</v>
       </c>
       <c r="U268" s="3" t="s">
@@ -36151,7 +36167,7 @@
       <c r="S269" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T269" s="2" t="s">
+      <c r="T269" s="10" t="s">
         <v>1908</v>
       </c>
       <c r="U269" s="3" t="s">
@@ -36255,7 +36271,7 @@
       <c r="S270" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T270" s="2" t="s">
+      <c r="T270" s="10" t="s">
         <v>1911</v>
       </c>
       <c r="U270" s="3" t="s">
@@ -36353,7 +36369,7 @@
       <c r="S271" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T271" s="2" t="s">
+      <c r="T271" s="10" t="s">
         <v>439</v>
       </c>
       <c r="U271" s="3" t="s">
@@ -36459,7 +36475,7 @@
       <c r="S272" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T272" s="2" t="s">
+      <c r="T272" s="10" t="s">
         <v>1918</v>
       </c>
       <c r="U272" s="3" t="s">
@@ -36559,7 +36575,7 @@
       <c r="S273" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T273" s="2" t="s">
+      <c r="T273" s="10" t="s">
         <v>1922</v>
       </c>
       <c r="U273" s="6" t="s">
@@ -36659,7 +36675,7 @@
       <c r="S274" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T274" s="2" t="s">
+      <c r="T274" s="10" t="s">
         <v>1925</v>
       </c>
       <c r="U274" s="3" t="s">
@@ -36761,7 +36777,7 @@
       <c r="S275" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T275" s="2" t="s">
+      <c r="T275" s="10" t="s">
         <v>1930</v>
       </c>
       <c r="U275" s="3" t="s">
@@ -36861,7 +36877,7 @@
       <c r="S276" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T276" s="2" t="s">
+      <c r="T276" s="10" t="s">
         <v>1935</v>
       </c>
       <c r="U276" s="3" t="s">
@@ -36959,7 +36975,7 @@
       <c r="S277" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T277" s="2" t="s">
+      <c r="T277" s="10" t="s">
         <v>1938</v>
       </c>
       <c r="U277" s="3" t="s">
@@ -37059,7 +37075,7 @@
       <c r="S278" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T278" s="2" t="s">
+      <c r="T278" s="10" t="s">
         <v>442</v>
       </c>
       <c r="U278" s="3" t="s">
@@ -37159,7 +37175,7 @@
       <c r="S279" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T279" s="2" t="s">
+      <c r="T279" s="10" t="s">
         <v>1944</v>
       </c>
       <c r="U279" s="3" t="s">
@@ -37261,7 +37277,7 @@
       <c r="S280" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T280" s="2" t="s">
+      <c r="T280" s="10" t="s">
         <v>1950</v>
       </c>
       <c r="U280" s="3" t="s">
@@ -37361,7 +37377,7 @@
       <c r="S281" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T281" s="2" t="s">
+      <c r="T281" s="10" t="s">
         <v>1954</v>
       </c>
       <c r="U281" s="3" t="s">
@@ -37461,7 +37477,7 @@
       <c r="S282" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T282" s="2" t="s">
+      <c r="T282" s="10" t="s">
         <v>1958</v>
       </c>
       <c r="U282" s="3" t="s">
@@ -37561,7 +37577,7 @@
       <c r="S283" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T283" s="7" t="s">
+      <c r="T283" s="12" t="s">
         <v>1966</v>
       </c>
       <c r="U283" s="3" t="s">
@@ -37663,7 +37679,7 @@
       <c r="S284" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T284" s="2" t="s">
+      <c r="T284" s="10" t="s">
         <v>1967</v>
       </c>
       <c r="U284" s="3" t="s">
@@ -37769,7 +37785,7 @@
       <c r="S285" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T285" s="2" t="s">
+      <c r="T285" s="10" t="s">
         <v>1971</v>
       </c>
       <c r="U285" s="3" t="s">
@@ -37869,7 +37885,7 @@
       <c r="S286" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T286" s="2" t="s">
+      <c r="T286" s="10" t="s">
         <v>447</v>
       </c>
       <c r="U286" s="3" t="s">
@@ -37969,7 +37985,7 @@
       <c r="S287" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T287" s="2" t="s">
+      <c r="T287" s="10" t="s">
         <v>450</v>
       </c>
       <c r="U287" s="3" t="s">
@@ -38069,7 +38085,7 @@
       <c r="S288" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T288" s="2" t="s">
+      <c r="T288" s="10" t="s">
         <v>1982</v>
       </c>
       <c r="U288" s="3" t="s">
@@ -38169,7 +38185,7 @@
       <c r="S289" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T289" s="2" t="s">
+      <c r="T289" s="10" t="s">
         <v>1986</v>
       </c>
       <c r="U289" s="3" t="s">
@@ -38271,7 +38287,7 @@
       <c r="S290" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T290" s="2" t="s">
+      <c r="T290" s="10" t="s">
         <v>1989</v>
       </c>
       <c r="U290" s="3" t="s">
@@ -38371,7 +38387,7 @@
       <c r="S291" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T291" s="2" t="s">
+      <c r="T291" s="10" t="s">
         <v>456</v>
       </c>
       <c r="U291" s="3" t="s">
@@ -38469,7 +38485,7 @@
       <c r="S292" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T292" s="2" t="s">
+      <c r="T292" s="10" t="s">
         <v>1996</v>
       </c>
       <c r="U292" s="3" t="s">
@@ -38571,7 +38587,7 @@
       <c r="S293" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T293" s="2" t="s">
+      <c r="T293" s="10" t="s">
         <v>2002</v>
       </c>
       <c r="U293" s="3" t="s">
@@ -38677,7 +38693,7 @@
       <c r="S294" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T294" s="2" t="s">
+      <c r="T294" s="10" t="s">
         <v>2006</v>
       </c>
       <c r="U294" s="3" t="s">
@@ -38779,7 +38795,7 @@
       <c r="S295" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T295" s="2" t="s">
+      <c r="T295" s="10" t="s">
         <v>2010</v>
       </c>
       <c r="U295" s="8" t="s">
@@ -38879,7 +38895,7 @@
       <c r="S296" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T296" s="7" t="s">
+      <c r="T296" s="12" t="s">
         <v>2723</v>
       </c>
       <c r="U296" s="3" t="s">
@@ -38979,7 +38995,7 @@
       <c r="S297" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T297" s="2" t="s">
+      <c r="T297" s="10" t="s">
         <v>2017</v>
       </c>
       <c r="U297" s="3" t="s">
@@ -39077,7 +39093,7 @@
       <c r="S298" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T298" s="2" t="s">
+      <c r="T298" s="10" t="s">
         <v>464</v>
       </c>
       <c r="U298" s="3" t="s">
@@ -39175,7 +39191,7 @@
       <c r="S299" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T299" s="2" t="s">
+      <c r="T299" s="10" t="s">
         <v>2023</v>
       </c>
       <c r="U299" s="3" t="s">
@@ -39285,7 +39301,7 @@
       <c r="S300" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T300" s="2" t="s">
+      <c r="T300" s="10" t="s">
         <v>2736</v>
       </c>
       <c r="U300" s="3" t="s">
@@ -39389,7 +39405,7 @@
       <c r="S301" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T301" s="2" t="s">
+      <c r="T301" s="10" t="s">
         <v>2032</v>
       </c>
       <c r="U301" s="3" t="s">
@@ -39489,7 +39505,7 @@
       <c r="S302" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T302" s="2" t="s">
+      <c r="T302" s="10" t="s">
         <v>2036</v>
       </c>
       <c r="U302" s="3" t="s">
@@ -39587,7 +39603,7 @@
       <c r="S303" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T303" s="2" t="s">
+      <c r="T303" s="10" t="s">
         <v>2041</v>
       </c>
       <c r="U303" s="3" t="s">
@@ -39685,7 +39701,7 @@
       <c r="S304" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T304" s="2" t="s">
+      <c r="T304" s="10" t="s">
         <v>2044</v>
       </c>
       <c r="U304" s="3" t="s">
@@ -39785,7 +39801,7 @@
       <c r="S305" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T305" s="2" t="s">
+      <c r="T305" s="10" t="s">
         <v>2047</v>
       </c>
       <c r="U305" s="3" t="s">
@@ -39883,7 +39899,7 @@
       <c r="S306" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T306" s="2" t="s">
+      <c r="T306" s="10" t="s">
         <v>2845</v>
       </c>
       <c r="U306" s="2" t="s">
@@ -39983,7 +39999,7 @@
       <c r="S307" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T307" s="2" t="s">
+      <c r="T307" s="10" t="s">
         <v>2053</v>
       </c>
       <c r="U307" s="3" t="s">
@@ -40081,7 +40097,7 @@
       <c r="S308" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T308" s="7" t="s">
+      <c r="T308" s="12" t="s">
         <v>2745</v>
       </c>
       <c r="U308" s="3" t="s">
@@ -40183,7 +40199,7 @@
       <c r="S309" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T309" s="2" t="s">
+      <c r="T309" s="10" t="s">
         <v>2060</v>
       </c>
       <c r="U309" s="3" t="s">
@@ -40283,7 +40299,7 @@
       <c r="S310" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T310" s="2" t="s">
+      <c r="T310" s="10" t="s">
         <v>2065</v>
       </c>
       <c r="U310" s="3" t="s">
@@ -40381,7 +40397,7 @@
       <c r="S311" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T311" s="2" t="s">
+      <c r="T311" s="10" t="s">
         <v>2069</v>
       </c>
       <c r="U311" s="3" t="s">
@@ -40485,7 +40501,7 @@
       <c r="S312" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T312" s="2" t="s">
+      <c r="T312" s="10" t="s">
         <v>479</v>
       </c>
       <c r="U312" s="3" t="s">
@@ -40587,7 +40603,7 @@
       <c r="S313" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T313" s="2" t="s">
+      <c r="T313" s="10" t="s">
         <v>2075</v>
       </c>
       <c r="U313" s="3" t="s">
@@ -40695,7 +40711,7 @@
       <c r="S314" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T314" s="2" t="s">
+      <c r="T314" s="10" t="s">
         <v>2080</v>
       </c>
       <c r="U314" s="3" t="s">
@@ -40795,7 +40811,7 @@
       <c r="S315" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T315" s="2" t="s">
+      <c r="T315" s="10" t="s">
         <v>2084</v>
       </c>
       <c r="U315" s="3" t="s">
@@ -40893,7 +40909,7 @@
       <c r="S316" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T316" s="2" t="s">
+      <c r="T316" s="10" t="s">
         <v>2758</v>
       </c>
       <c r="U316" s="2" t="s">
@@ -40991,7 +41007,7 @@
       <c r="S317" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T317" s="2" t="s">
+      <c r="T317" s="10" t="s">
         <v>2766</v>
       </c>
       <c r="U317" s="2" t="s">
@@ -41091,7 +41107,7 @@
       <c r="S318" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T318" s="2" t="s">
+      <c r="T318" s="10" t="s">
         <v>2772</v>
       </c>
       <c r="U318" s="2" t="s">
@@ -41191,7 +41207,7 @@
       <c r="S319" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T319" s="2" t="s">
+      <c r="T319" s="10" t="s">
         <v>2778</v>
       </c>
       <c r="U319" s="2" t="s">
@@ -41291,7 +41307,7 @@
       <c r="S320" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T320" s="2" t="s">
+      <c r="T320" s="10" t="s">
         <v>2786</v>
       </c>
       <c r="U320" s="2" t="s">
@@ -41391,7 +41407,7 @@
       <c r="S321" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T321" s="2" t="s">
+      <c r="T321" s="10" t="s">
         <v>2794</v>
       </c>
       <c r="U321" s="2" t="s">
@@ -41501,7 +41517,7 @@
       <c r="S322" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T322" s="2" t="s">
+      <c r="T322" s="10" t="s">
         <v>2802</v>
       </c>
       <c r="U322" s="2" t="s">
@@ -41603,7 +41619,7 @@
       <c r="S323" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T323" s="2" t="s">
+      <c r="T323" s="10" t="s">
         <v>2811</v>
       </c>
       <c r="U323" s="2" t="s">
@@ -41701,7 +41717,7 @@
       <c r="S324" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T324" s="2" t="s">
+      <c r="T324" s="10" t="s">
         <v>2850</v>
       </c>
       <c r="U324" s="2" t="s">
@@ -41801,7 +41817,7 @@
       <c r="S325" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T325" s="2" t="s">
+      <c r="T325" s="10" t="s">
         <v>2819</v>
       </c>
       <c r="U325" s="2" t="s">
@@ -41901,7 +41917,7 @@
       <c r="S326" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T326" s="2" t="s">
+      <c r="T326" s="10" t="s">
         <v>2087</v>
       </c>
       <c r="U326" s="3" t="s">
